--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,7 +283,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -998,6 +998,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>機関生成の記述</t>
   </si>
   <si>
@@ -1078,10 +1082,6 @@
   </si>
   <si>
     <t xml:space="preserve">SeriesInstanceUID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -5083,16 +5083,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5160,10 +5160,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5197,16 +5197,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5256,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5274,7 +5274,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5311,13 +5311,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5368,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5386,7 +5386,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5429,7 +5429,7 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>136</v>
@@ -5482,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5500,7 +5500,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5514,11 +5514,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5540,10 +5540,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5598,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5630,11 +5630,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5653,7 +5653,7 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>335</v>
@@ -5714,7 +5714,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -5997,7 +5997,7 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>356</v>
@@ -6074,7 +6074,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>360</v>
@@ -6797,7 +6797,7 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>401</v>
@@ -6913,13 +6913,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6970,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6988,7 +6988,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7031,7 +7031,7 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>136</v>
@@ -7084,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7102,7 +7102,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7142,10 +7142,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>136</v>
@@ -7200,7 +7200,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7483,7 +7483,7 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>425</v>
@@ -7597,13 +7597,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7654,7 +7654,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7672,7 +7672,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7715,7 +7715,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7768,7 +7768,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7786,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7826,10 +7826,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7884,7 +7884,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7939,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>434</v>
@@ -8283,7 +8283,7 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>457</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
